--- a/Candat 4 - 2024.xlsx
+++ b/Candat 4 - 2024.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="754" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Candat Sales" sheetId="1" r:id="rId1"/>
     <sheet name="Candat Tech" sheetId="2" r:id="rId2"/>
     <sheet name="Offers " sheetId="4" r:id="rId3"/>
     <sheet name="Concession" sheetId="12" r:id="rId4"/>
-    <sheet name="CMD Comm" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId6"/>
-    <sheet name="NPS" sheetId="14" r:id="rId7"/>
-    <sheet name="Idle Process" sheetId="6" r:id="rId8"/>
-    <sheet name="Land Line Cand" sheetId="9" r:id="rId9"/>
+    <sheet name="CPEs" sheetId="15" r:id="rId5"/>
+    <sheet name="CMD Comm" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="NPS" sheetId="14" r:id="rId8"/>
+    <sheet name="Idle Process" sheetId="6" r:id="rId9"/>
+    <sheet name="Land Line Cand" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="418">
   <si>
     <t xml:space="preserve">الترحيب </t>
   </si>
@@ -716,6 +717,12 @@
 ودة لينك موضح اغلب الفروع ومواعيد عملهم http://bit.ly/2xNvlzm او ممكن اقوم بتوضيح اقرب فرع ومواعيد العمل من خلالي</t>
   </si>
   <si>
+    <t>MTU</t>
+  </si>
+  <si>
+    <t>line code</t>
+  </si>
+  <si>
     <t xml:space="preserve">حاليا يا فندم هتحتاج انك تتواصل من خلال الاتصال غلي رقم 155 الجهاز القومي لتنظيم الاتصالات لمعرفه الرقم متاح او لا ولو متاح حضرتك هتشرفنا مباشره ف الفرع لتقديم الاوراق وتفعيل الخدمه ف خلال 48 ساعه عمل ودفع قيمه الاشتراك اول مرة فقط من خلال الفرع وممكن اوضح لحضرتك  الاوراق المطلوبة للتعاقد والباقات والتفاصيل 
 ولو الخط محجوز لشركه اخري  لو شركه اورانج متاح التحويل من اورانج لينا مباشره و حضرتك بتابع معانا التفاصيل ولو شركه اخري هتحتاج انك تجيب رقم الالغاء اولا وتتوجه للفرع للاشتراك ولازم يكون خط حضرتك الارضي اتركب ف  السنترال والحرراه اشتغلت اولا 
  ودة لينك موضح اغلب الفروع ومواعيد 
@@ -1576,12 +1583,1025 @@
 مثال: تم إجراء مكالمة موبايل خارج شبكة WE لمدة دقيقة، سيتم خصم مبلغ 26 قرشاً من الرصيد (10 قروش فتح مكالمة + 14 قرش سعر الدقيقة + 2 قرش ضريبة جدول)
 </t>
   </si>
+  <si>
+    <t xml:space="preserve">internet  ندخل على 
+internet setting بعدين 
+dsl mode setting  بعدين
+all نختار 
+save وندوس 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet ندخل على 
+wan بعدين
+dsl modulation parameters بعدين
+ونعلم على كله
+apply وندوس
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network هندخل على 
+wan بعدين 
+Adsl modulation بعدين 
+ونعلم على النوع اللى محتاجينه وندوس  submit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Basic ندخل على 
+Dsl بعدين 
+Dsl تانى
+وبعد ما بنسجل اللاين كود بندوس  submit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - هتختار advanced
+2 – network وبعدين 
+3- dsl setting  وبعدين 
+Auto sync up هندوس على السهم 
+All هنختار 
+Save وندوس
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Internet &gt;ندخل على 
+ WAN &gt; وبعدين
+DSL &gt;وبعدين
+ DSL Modeling Parameters وبعدين 
+ونعلم على كله يا فندم 
+Apply وندوس
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Information -&gt;هنختار
+ DSL -&gt;وبعدين
+ DSL Mode وبعدين  standard وبعدين all نختار submit وندوس
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintain ندخل على 
+system information بعدين 
+dsl information بعدين 
+upstream line rate دى سرعة الابلود
+downstream line rate دى سرعة الداونلود
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet هندخل على 
+status بعدين
+dsl link information بعدين
+actual rate (up/down) دى السرعه
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+status هندخل على 
+network interface وبعدين 
+Adsl وبعدين 
+actual rate (up/down) هنلاقى عندها السرعه 
+اللى مكتوب الاول من الشمال سرعة الابلود واللى بعدها سرعة الداونلود 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status هنختار
+wan وبعدين 
+Dsl وبعدين
+Line status هنلاقى مربع اسمه
+upstream بيكون جنبها سرعه الابلود 
+downstream بيكون جنيها  سرعه الداون لود 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+1 advanced هندخل على
+2 status وبعدين 
+current downstream ده الداونلود
+current upstream ده الابلود
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Internet &gt;هندخل
+ Status &gt;وبعدين
+ DSL &gt;وبعدين
+ DSL Link Informationوبعدين
+Actual rate(up/down)دى سرعة الابلود والداونلود
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Information&gt; هنختار
+DSL&gt;وبعدين
+Upstream دى سرعة الابلود downstream دى سرعة الداونلود
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home page هنختار system info وبعدين vdsl wan عند RX دى سرعة الداونلود
+TX دى سرعة الابلود
+</t>
+  </si>
+  <si>
+    <t>Upstream/ Downstream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home ندخل 
+network security بعدين 
+Firewall بعدين 
+Firewall level  بعدين
+Disabled نخليها
+Save وندوس
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home ندخل على 
+firewall بعدين 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">security هندخل على 
+firewall بعدين 
+off نعملها 
+submit وندوس
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advanced ندخل على 
+firewall بعدين 
+off   نعملها 
+ثم 
+submit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 advanced هندخل على 
+2 security وبعدين 
+3 firewall وبعدين 
+Ipv4/ ipv6 هنقفل الاتنين يا فندم 
+Save  وندوس
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet &gt;هندخل على
+ Security &gt;وبعدين
+ Firewall وبعدين 
+Enable firewall وبعدين apply وندوس 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced &gt; هنختار
+ Security &gt; وبعدين
+Firewall Level وبعدين  وبعد كده نعمل  disabled وندوس   apply
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># فى صفحة الراوتر  فى 3 شرط تحت بعض اللى بنقدر نجيب منهم الاختيارت بعدين هنختار  network setting بعدها  security
+بعدها  firewall ونعلم صح على الاتنين  ip وندوس  apply
+</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home ندخل 
+check my network status بعدين 
+more ندوس
+Ethernet devices الاجهزة المتصلة بكابل 
+Wlan devices الاجهزة المتصلة وايرلس 
+الاجهزة اللى باللون الازرق هى اللى شغاله على الراوتر حاليا 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local network ندخل على 
+lan بعدين 
+ipv4 بعدين
+هنلاقى الاجهزة المتصلة بالراوتر 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network هندخل على 
+wlan بعدين 
+associated devices بعدين 
+هيظهر الاجهزة المتصلة 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+status ندخل على 
+lan بعدين 
+ethernet بعدين
+Lan side devices هنلاقى هنا الاجهزة المتصلة 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+قم بالضغط علي Advanced
+Security بعدين 
+Access control بعدين 
+Online devices دى الاجهزة المتصلة 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+home من wlan devices ندخل
+ده عشان نعرف الاجهزة المتصلة يا فندم 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Home page" من 
+Wired Devices
+ده الاجهزه المتصله كابل
+wi-fi devices
+ده الاجهزه المتصله واى فاى 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">home page من هنختار  connectivity هيظهر لينا الاجهزة اللى موجودة على الراوتر  ومن علامة القلم لو ضغطنا عليها نقدر نعمل حظر للجهاز
+</t>
+  </si>
+  <si>
+    <t>Connected devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maintain ندخل على 
+account management  بعدين 
+Modify login password بعدين 
+Edit نختار اللى فيها ادمن  
+Current password:  نكتب الباسورد القديم
+new نكتب الجديد 
+confirm  نكتب الجديد كمان مره 
+بعدين save 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account management ندخل على 
+telcomadmin Account management بعدين 
+old password نكتب الباسورد القديم
+new نكتب الجديد 
+confirm  نكتب الجديد كمان مره 
+Apply ندوس 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administration  ندخل على 
+User management وبعدين 
+old password نكتب الباسورد القديم
+new نكتب الجديد 
+confirm  نكتب الجديد كمان مره 
+Submit وندوس
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance ندخل على
+Account بعدين 
+old password تكتب الباسورد القديم
+new تكتب الجديد 
+confirm  تكتب الجديد كمان مره 
+submit
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+قم بالضغط علي Advanced
+ثم اضغط على  &gt; System Tools
+ثم اضغط على &gt; Administration
+من خلال Account Management
+Old Password: الباسورد القديم.
+New Password : الباسورد الجديد.
+Confirm New Password : هنكتب الباسورد الجديد مره تانى.
+ثم الضغط على Save.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management &amp; Diagnosis &gt;هندخل على 
+ Account Management &gt; وبعدين
+Admin Account Management وبعدين 
+ونغير الباسور ونعمل حفظ يا فندم 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced &gt; هنختار
+System Management &gt;وبعدين
+ Account Management وبعدين change password وبعدين ونكتب الباسورد القديم وبعد كده الجديد مرتين apply وندوس  في
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># فى صفحة الراوتر  فى 3 شرط تحت بعض اللى بنقدر نجيب منهم الاختيارت بعدين هنختار  maintenance بعدها  user account  وتعلم على علامة القلم ونكتب الباسورد الجديد وندوس  apply
+</t>
+  </si>
+  <si>
+    <t>Change password for router page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home network ندخل على 
+wlan access بعدبن 
+Wlan wps بعدين 
+Enable wps هنشيل الصح من عليها 
+Wps by push button(pbc) ونختار 
+Save وندوس 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local network ندخل على 
+wlan بعدين 
+wps بعدين 
+wps  تانى 
+نختار الشبكة 
+wps mode نخليها 
+disable
+apply وندوس 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+networl ندخل على 
+wlan وبعدين 
+wps وبعدين
+Wps mode هنختار منها
+bbs 
+submit وندوس 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+basic ندخل على 
+wlan وبعدين 
+Wireless seting بعدين 
+wps هنلاقى مربع عندها نشيل علامة الصح
+Wps mode هنختار منها
+bbs 
+submit وندوس 
+واللينك ده يا فندم فيه الخطوات بالصور
+https://justpaste.it/79nh0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+1 - هتختار advanced
+2 – wireless وبعدين 
+Wps وبعدين
+Save نقفلها وندوس
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local network هندخل 
+wlan وبعدها 
+Wps وبعدها
+ونقفل wps وندوس حفظ يا فندم
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+# كيفيه اغلاق wps
+من علامة الترس هنختار  wlan ونختار الشبكة سواء 2.4G او 5G خيبقى موجود تحت enable wps هنشيل العلامة من عليها وندوس apply 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># كيفيه اغلاق wps
+هنختار wps
+هيتم الضعط على الزر اللى  موجود عند wps ده وبعد كده حفظ
+</t>
+  </si>
+  <si>
+    <t>Disable Wps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home Network ندخل على 
+wlan access بعدين 
+WLAN Access Rules بعدين 
+نختار اسم الشبكة ونعمل  edit 
+هيظهر 3 اختيارات يا فندم 
+Only allow specific computers in the WLAN
+هنختار ده .. وده اللى من خلاله هنختار الاجهزة اللى عاوزبنها تدخل على الراوتر 
+Managed LAN devices  هيظهر لحضرتك بعد كده 
+ونعلم على الاجهزة اللى عاوزينها تدخل على الراوتر وبعد كده
+add device ندوس
+Save واخر حاجه ندوس
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local network ندخل على 
+wlan بعدين 
+wlan advansed  بعدين 
+Whitelist دى لو عاوزين نحدد اجهزة تدخل على الراوتر 
+Blacklist دى لو عاوزين نمنع اجهزة تدخل على الراوتر 
+ونكتب الماك ادريس الخاص بالجهاز 
+apply  وندوس
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network ندخل 
+wlan وبعدين 
+access control list وبعدين 
+هنكتب الماك ادريس الخاص بالجهاز 
+add ونعمل 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+basic ندخل على 
+wlan وبعدين 
+Wlan filtering بعدين 
+Whitelist دى لو عاوزين نحدد اجهزة تدخل على الراوتر 
+Blacklist دى لو عاوزين نمنع اجهزة تدخل على الراوتر 
+ونكتب الماك ادريس الخاص بالجهاز 
+submit وندوس
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - هتختار advanced
+2 - network
+3- wirless
+4- mac filtering 
+بعد كده فى حاجه اسمها بلاك ليست اللى بيتحط فى القايمه ديه مش بيعرف يدخل  على الراوتر وبيتم حظره 
+وفيه اختيار تانى وايت ليست ديه الناس اللى ممكن تدخل على الروتر 
+device online ديه الاجهزه اللى شغاله على الروتر  
+هتجيى عند device list 
+وتعمل add لو عايز تضيف اى جهاز 
+وتعمل delete لو عايز تحذف اى جهاز
+وندخل بيانات الجهاز يا فندم ونعمل  save
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+home من wlan devices ندخل
+ده عشان نعرف الاجهزة المتصلة يا فندم  بعد كده يا فندم هندخل على WLAN وبعدها WLAN Advanced وبعد كده هتختار white list  من شبكة 2.4G عشان تضيف الاجهزة اللى حضرتك عاوزها تدخل للراوتر بعدها ندخل على Access Control-Rule Configuration ونضيف الاجهزة  apply وندوس فى كل خطوه
+ونفس الخطوات لشبكة 5g 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced هنختار
+ Security &gt; ثم
+Wi-Fi MAC Filtering ثم
+blacklist ديه عشان يتم حظر الاجهزه من عدم الدخول للروتر
+whitelist  ديه عشان يتم اضافه الاجهزه المراد دخولها على الروتر فقط  حضرتك هتختار سواء حظر اجهزة او اضفة اجزة زى ماتحب يا فندم  وبعدين ندوس على  new ونكتب الاجهزة وندوس  apply يا فندم  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فى صفحة الراوتر فى 3 شرط تحت بعض اللى بنقدر نجيب منهم الاختيارت
+هنختار security بعدها  mac filter بعدها  add new rule
+ونكتب الاجهزة اللى احنا عاوزين نسمحلها بالدخول للراوتر  وبعدين  apply 
+</t>
+  </si>
+  <si>
+    <t>Mac Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet هندخل على 
+internet setting بعدين 
+INTERNET_TR069_R_0_35 بعدين 
+edit بعدين 
+هنغير كلمه auto الى  manual
+Mtu هنكتب عندها1420
+ومع كل تغير نضغط كلمه  
+apply  عشان يتم الحفظ اوsave 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet هندخل على 
+wan بعدين 
+pvc0 بعدين
+mtu mode هنخليها 
+manual 
+mtu وبعدين هنكتب 1420 عند  
+ومع كل تغير نضغط كلمه  
+apply  عشان يتم الحفظ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نختار wan
+ثم wan connection
+Mtu عندها هنكتب 1420
+ومع كل تغير نضغط كلمه  
+modify عشان يتم الحفظ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هنختار  basic 
+نختار wan
+INTERNET_TR069_R_O_35
+هنغير كلمه auto الى  manual
+1420 ونضيف الرقم فى 
+MTU
+و نضغط كلمه  
+submit  عشان يتم الحفظ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+1-هنفتح صفحة الراوتر عن طريق كتابة
+ 192.168.1.1 فى شريط العنوان فى اى متصفح زى 
+Google chrome او Firefox
+2-هندخل اليوزر نيم والباسورد الخاص بصفحة الراوتر 
+اسم المستخدم و الباسورد  بتكون موجودة فى ظهر الراوتر
+3-هتضغط علي Advanced
+4-pppoe_ptm_0_0_d
+5-نضغط علي modify
+6-هتضغط علي Advanced
+7-نكتب 1420 في مكان ال MTU
+8-نضغط Save
+-نعمل ريستارت للراوتر
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-هنفتح صفحة الراوتر عن طريق
+ كتابة 192.168.1.1 
+فى شريط العنوان فى اى متصفح زى Google chrome او Firefox
+2-هندخل اليوزر نيم والباسورد الخاص بصفحة الراوتر 
+اسم المستخدم و الباسورد  بتكون موجودة فى ظهر الراوتر
+3-هتضغط علي كلمة internet
+4-هتختار WAN من القائمة الجانبية
+5-من DSL Connection نختار WAN0
+6-MTU Mode نختاره Manual
+7-نكتب 1420 في مكان ال MTU
+8- نضغط Apply
+9-نعمل ريستارت للراوتر
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هنفتح صفحة الراوتر عن طريق كتابة  192.168.1.1 فى شريط العنوان فى اى متصفح 
+2-هندخل اليوزر نيم والباسورد الخاص بصفحة الراوتر 
+اسم المستخدم و الباسورد  بتكون موجودة فى ظهر الراوتر
+3-هتضغط علي Advanced
+4-هتختار WAN من القائمة الجانبية
+5-7_TR069_INTERNET_R_VDSL_VID_ 
+6-ونضغط علي Change ADSL user name and password
+7-MRU Type نخليه Manual
+8-نكتب 1420 في مكان ال MRU
+9-- نضغط Apply
+9-نعمل ريستارت للراوتر 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+فى صفحة الراوتر فى 3 شرط تحت بعض هنضغط عليهم
+وبعدين اختيار##    network setting
+# ثم broadband 
+هنا بنحتار على حسب حضرتك  مفعل الروترعلى ايه 
+لو مفعله على adsl ده سرعات عاديه 
+على vdsl سرعات عاليه 
+وبيتم الضغط على علامه القلم 
+هيتم اضافة الرقم 1420 فى المربع الخاص ب 
+mtu
+ومع كل تغير نضغط كلمه  
+عشان يتم الحفظ apply
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حضرتك هتفتح اى متصفح وتكتب فى اعلى العنوان 192.168.1.1
+هايفتح صفحة الروتر 
+هتختار من على الشمال   network
+وبعدين تختار منها lan 
+وبعدين تختار اول حاجه  dhcp server 
+هاتكتب فى اول خانه هاتظهر فى نص الشاشه  dns server 1 ip الارقام 163.121.128.134
+هاتكتب فى تانى خانه  dns server 1 ipالارقام 163.121.128.135
+save وبعدين تضغط   
+بعد ما تسجل البيانات هنحتاج ان حضرتك تعمل ريستارت للراوتر 
+ولو حضرتك بتتابعنا من تفس الراوتر ممكن الشات يفصل   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+حضرتك هتفتح اى متصفح وتكتب فى اعلى العنوان 192.168.1.1
+هيفتح صفحة الروتر
+فى فوق خالص home جمبها internet  وجمبها local network 
+اختار الlocal network 
+على الشمال اختار lan 
+هتظهر فى نص الصفحه dhcp اختارها يا فندم 
+وبعدين بتعمل على isp dns
+وتكتب فى اول خانه هاتظهر primary dns الارقام 163.121.128.134
+وتكتب فى تانى خانه secondry dns الارقام 163.121.128.135
+apply وبعدين تضغط   
+وعمل ريستارت للراوتر يا فندم عشان يسحب الاعدادات اللى اتغيرت 
+ولو حضرتك بتتابعنا من نفس الراوتر الشات ممكن يفصل 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+حضرتك هتفتح اى متصفح وتكتب فى اعلى العنوان 192.168.1.1
+هايفتح صفحة الروتر 
+هتختار من على الشمال   network
+وبعدين تختار منها lan 
+فوبعدين تختار اول حاجه  dhcp server 
+هاتكتب فى اول خانه هاتظهر فى نص الشاشه  dns server 1 ip الارقام 163.121.128.134
+هاتكتب فى تانى خانه  dns server 1 ipالارقام 163.121.128.135
+save وبعدين تضغط   
+بعد ما تسجل البيانات هنحتاج اننا نقوم بعمل ريستارت للراواتر عشان البيانات تتحفظ ولو حضرتك متصل معانا من نفس الشبكه ممكن تؤدى الى فصل الشات  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حضرتك هتفتح اى متصفح وتكتب فى اعلى العنوان 192.168.1.1
+هايفتح صفحة الروتر
+هتختار من على الشمال Basic
+ومنها تختار lan
+فى نص الصفحه فى خانة الdhsp srever 
+هاتكتب فى اول خانه هاتظهر primary dns الارقام 163.121.128.134
+هاتكتب فى تانى خانه secondry dns الارقام 163.121.128.135
+save وبعدين تضغط   
+بعد ما تسجل البيانات هنحتاج اننا نقوم بعمل ريستارت للرواتر عشان البيانات تتحفظ ولو حضرتك متصل معانا من نفس الشبكه 
+ممكن الشات يفصل يا فندم
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+حضرتك هتفتح اى متصفح
+ وتكتب فى اعلى العنوان 192.168.1.1
+هايفتح صفحة الروتر 
+هتختار من على الشمال   network
+وبعدين تختار منها lan 
+وبعدين تختار اول حاجه  dhcp server 
+هاتكتب فى اول خانه هاتظهر فى نص الشاشه  dns server 1 ip الارقام 163.121.128.134
+هاتكتب فى تانى خانه  dns server 1 ipالارقام 163.121.128.135
+save وبعدين تضغط   
+بعد ما تسجل البيانات هنحتاج اننا نقوم برسترت الرواتر عشان البيانات تتحفظ ولو حضرتك متصل معانا من نفس الشبكه وبترسترت الرواتر هيؤدي لفصل الشات فلو فصل حضرتك بتقدر بتتابع معانا مره اخري 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local network &gt;هنختار
+ LAN &gt; وبعدين
+Ipv4 وبعدين
+DHCP Server ثم 
+وبعدين  primary dns secondary dns دول اللى هنسجل فيهم
+dns we هو 
+163.121.128.134          
+163.121.128.135    
+Dns google هو
+DNS 1: 8.8.8.8
+DNS 2: 8.8.4.4
+وتعمل حفظ اللى هيا بتكون apply
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced &gt;هنختار
+ LAN &gt; ثم
+DHCP Server ثم 
+وبعدين  primary dns secondary dns دول اللى هنسجل فيهم
+dns we هو 
+163.121.128.134          
+163.121.128.135    
+Dns google هو
+DNS 1: 8.8.8.8
+DNS 2: 8.8.4.4
+وتعمل حفظ اللى هيا بتكون apply
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+هيتم الضغط على network setting
+# home networking
+هيتم وضع العلامه على  static
+#dns we هو 
+163.121.128.134          
+163.121.128.135     
+# dns google  
+DNS 1: 8.8.8.8
+DNS 2: 8.8.4.4
+ثم حفظ وعمل ريستارت عشان الخطوات يتم حفظها
+</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- حضرتك يافندم عشان تغير اسم الشبكه والباسورد هتفتح صفحه الراوتر عن طريق 192.168.1.1
+2- بعدين هتكتب اليوزرنيم والباسورد الموجودين ع ضهر الراوتر
+3-بعد كدا هتفتح network..Wlan settings..wlan encryption
+4- هتلاقي اسم الشبكه والباسورد هتغيرهم ssid --- wpa pre-shared key
+5- لو عاوز تخفي الوايفاي هتلاقي عندك hide broadcast
+وجمبها مربع هتدوس عليه هيتعمل علامه صح وبعدين تعمل حفظ يافندم
+ولو حضرتك بتتابعنا من تفس الراوتر ممكن الشات يفصل
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- حضرتك يافندم عشان تغير اسم الشبكه والباسورد هتفتح صفحه الراوتر عن طريق 192.168.1.1
+2- بعدين هتكتب اليوزرنيم والباسورد الموجودين ع ضهر الراوتر
+3-بعد كدا هتفتح network..Wlan..wlan ssid setting..wlan ssid
+4- هتلاقي اسم الشبكه والباسورد هتغيرهم ssid name --- wpa passphrase
+5- لو عاوز تخفي الوايفاي هتلاقي عندك hide ssid
+وجمبها مربع هتدوس عليه هيتعمل علامه صح وبعدين تعمل حفظ يافندم
+ولو حضرتك بتتابعنا من نفس الراوتر الشات ممكن يفصل
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1- حضرتك يافندم عشان تغير اسم الشبكه والباسورد هتفتح صفحه الراوتر عن طريق 192.168.1.1
+2- بعدين هتكتب اليوزرنيم والباسورد الموجودين ع ضهر الراوتر
+3-بعد كدا هتفتح network..Wlan..ssid setting
+4- ssid    هنكتب اسم الشبكه
+5- بعد كدا هتفتح network..Wlan..security عشان تغير الباسورد
+6- لو عاوز تخفي الوايفاي هتلاقي عندك network..Wlan..ssid setting.. hide ssid
+وجمبها مربع هتدوس عليه هيتعمل علامه صح وبعدين تعمل حفظ يافندم
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- حضرتك يافندم عشان تغير اسم الشبكه والباسورد هتفتح صفحه الراوتر عن طريق 192.168.1.1
+2- بعدين هتكتب اليوزرنيم والباسورد الموجودين ع ضهر الراوتر
+3-بعد كدا هتفتح basic..Wlan
+4- هتلاقي اسم الشبكه والباسورد هتغيرهم ssid --- wpa pre-shared key
+5- لو عاوز تخفي الوايفاي هتلاقي عندك hide broadcast
+وجمبها مربع هتدوس عليه هيتعمل علامه صح وبعدين تعمل حفظ يافندم
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+حضرتك يافندم عشان تغير اسم الشبكه
+ والباسورد هتفتح صفحه الراوتر عن طريق 192.168.1.1
+وبعدها هتدخل اليوزر نيم والباسورد اللي في ضهر الراوتر
+هندخل علي Basic 
+وتضغط علي  Wirless
+ (SSID) Network Nameوحضرتك هتكتب  هنا اسم الشبكه :
+Hide SSID : وهنا قم بوضع علامة صح امامها لاخفاء شبكة الواي فاي
+وبعد كده Password  : حضرتك هتكتب باسورد شبكه الواي فاي 
+وتضغط save لحفظ البيانات التي تم تغييرها
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حضرتك يافندم عشان تغير اسم الشبكه
+ والباسورد هتدخل على صفحة الراوتر من خلال 192.168.1.1
+ثم تكتب اليوزرنيم والباسورد اللى على ضهر الراوتر 
+وتدخل على ال  local network 
+ ثم على  wlan
+ثم wlan global configuration 
+ ثم wlan ssid configuration 
+وتختار شبكة الواي الواي اللى حضرتك عايزها سواء ال2.4 جيجا هيرتز او ال5 جيجا هيرتز 
+في خانه الssid name  هتكتب اسم شبكة الواي فاي 
+في خانه ال wpa passphrase  هتكتب باسورد الواي فاي 
+ولو عايز شبكة الواي فاي تكون مخفية عند ssid hide  هتخليها  on 
+ثم تضغط على apply  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> عشان تغير اسم الشبكه يا فندم
+ والباسورد هتدخل على صفحة الراوتر من خلال 192.168.1.1
+ثم تكتب اليوزرنيم والباسورد 
+تدخل على Advanced  
+وبعدين
+ WLAN  
+تختار شبكة الواي فاي اللى حضرتك عايزها لو ال2.4 جيجا هيرتز هتدخل على G Basic Network
+2.4
+G Basic Network لو 5 جيجا هيرتز هتخدل على 5
+في خانة ال enable wlan هتحط علامة صح
+في خانة الssid name  هتكتب اسم شبكة الواى فاي
+في خانة ال wpa presharedkey هتكتب باسورد الواي فاي 
+ثم تضغط على apply
+لو حضرتك عاوز تخفى الشبكة هنختار  home page
+وبعدها  wifi configuration
+نحط علامه صح على hide network
+وبعد كده  save
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># فى صفحة الراوتر فى 3 شرط تحت بعض اللى بنقدر نجيب منهم الاختيارت
+# هنحتار network setting  # wireless
+# كيفيه تفعيل  الواى  فاى على
+ 2.4 g  or 5g
+لو عايز تفعل الاتنين مع بعض فكده هتحط علامه صح على 
+keep the same for 2.4g and 5g 
+# اما لو عايز تفعل شبكه واحده فقط  هشتيل علامه الصح من على 
+keep the same for 2.4g and 5g 
+# وهتيجى عند كلمه band
+وتختار سواء
+2.4g or 5g
+# max clients ده  اقصى عدد لاجهزه المسموح الاتصال بيها
+# hide ssid عند وضع علامه صح  هيتم اخفاء شبكه الواى فاى
+#### wireless network name  ده اسم شبكه الواى فاى
+# لو تم وضع علامه صح على كلمه
+generate password  automatically فكده الباسود هيكون هوالافتراضى اللى موجود على ضهر الروتر
+ #### اما فى حاله الرغبه فى تغير الباسورد الخاص بالواى هيتم ازاله العلامه من  ###
+generate password  automatically
+وبعد كده نكتب  الباسور وحفظ
+</t>
+  </si>
+  <si>
+    <t>Wireless config </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريست وكونفجريشن  للراوتر
+هناك ريست يسمى هارد يعنى بيكون بدبوس فى فتحه فى ضهر الراوتر  بنضغط عليها بدبوس  لحد لما كل اللمبات تفصل ماعدا الباور وبعد كده نعمل 
+لو ريست من صفحه الروتر اسمه ريست سوفت ودى الخطوات 
+قم بالضغط علي   maintain
+ثم اضغط على   system management 
+بعدين  device  management
+ثم اضغط على &gt; restore 
+هيتم كتابه يوز نيم وباسورد الخدمه
+home هندخل على 
+start wizard بعدين
+بنكتب   يوز نيم وباسورد الاعدادات   اللى بيوصلك من الشركه
+وبكده الخطوات تكون اتعملت
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ريست وكونفجريشن  للراوتر
+هناك ريست يسمى هارد يعنى بيكون بدبوس فى فتحه فى ضهر الراوتر  بنضغط عليها بدبوس  لحد لما كل اللمبات تفصل ماعدا الباور وبعد كده نعمل 
+لو ريست من صفحه الروتر اسمه ريست سوفت ودى الخطوات 
+قم بالضغط علي   management &amp; diagnosis
+ثم اضغط على   system management 
+بعدين  system management
+ثم اضغط على &gt; restore default 
+هيتم كتابه يوز نيم وباسورد الخدمه
+بنكتب   يوز نيم وباسورد الاعدادات   اللى بيوصلك من الشركه 
+وبكده الخطوات تكون اتعملت 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ريست وكونفجريشن  للراوتر
+هناك ريست يسمى هارد يعنى بيكون بدبوس فى فتحه فى ضهر الراوتر  بنضغط عليها بدبوس  لحد لما كل اللمبات تفصل ماعدا الباور وبعد كده نعمل 
+لو ريست من صفحه الروتر اسمه ريست سوفت ودى الخطوات 
+قم بالضغط علي  administration
+ثم اضغط على   system management 
+ثم اضغط على &gt; restore default 
+ثم اضغط على yes 
+هيتم كتابه يوز نيم وباسورد الخدمه
+بنكتب   يوز نيم وباسورد الاعدادات   اللى بيوصلك من الشركه
+بعد عمل الريست بيتم عمل الاعدادات الخاصه بالشبكة
+name ssid هنكتب اسم الشبكة اللى حضرتك عاوزه 
+passphrase wpa  هنكتب الباسورد اللى حضرتك عاوزه 
+authentication type ده نوع الحماية 
+ وهنختاره  wpa 2
+ next وبعدن
+وبعدين اضغط finish
+وبكده الخطوات تكون اتعملت 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ريست وكونفجريشن  للراوتر
+هناك ريست يسمى هارد يعنى بيكون بدبوس فى فتحه فى ضهر الراوتر  بنضغط عليها بدبوس  لحد لما كل اللمبات تفصل ماعدا الباور وبعد كده نعمل 
+لو ريست من صفحه الروتر اسمه ريست سوفت ودى الخطوات 
+قم بالضغط علي  maintinance
+ثم اضغط على   device
+ثم اضغط على &gt;   reset
+ثم اضغط على &gt; restore default settings
+ثم اضغط على yes 
+هيتم كتابه يوز نيم وباسورد الخدمه
+بنكتب   يوز نيم وباسورد الاعدادات   اللى بيوصلك من الشركه
+بعد عمل الريست بيتم عمل الاعدادات الخاصه بالشبكة
+enable wlan بنتركها كما هى بحيث لو اعلامة الصح من أمامها سوف يتم تعطيل شبكة الواى فاى وبالتالى لمبة Wlan  فى الراوتر هتفصل
+WLAN SSID دا اسم شبكة الواى فاى
+security  دا نظام التشفير وبنختار اعلى نظام وهو
+WPA – PSK / WPA2 -PSK
+WPA pre shared key دا باسور الواى فاى ومن المفترض  ان لا يقل عن 8 عناصر سواء ارقام او أحرف
+encryption دا يفضل نختاره WPA+AES
+وبعدين اضغط NEXT
+وبكده الخطوات تكون اتعملت 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريست وكونفجريشن  للراوتر
+هناك ريست يسمى هارد يعنى بيكون بدبوس فى فتحه فى ضهر الراوتر  بنضغط عليها بدبوس  لحد لما كل اللمبات تفصل ماعدا الباور وبعد كده نعمل 
+لو ريست من صفحه الروتر اسمه ريست سوفت ودى الخطوات 
+قم بالضغط علي advanced
+ثم اضغط على &gt; system tools
+ثم اضغط على &gt; backup and restore
+ثم اضغط على &gt;factory restore
+ثم اضغط على yes 
+هيتم كتابه يوز نيم وباسورد الخدمه
+بنكتب   يوز نيم وباسورد الاعدادات   اللى بيوصلك من الشركه
+بعد عمل الريست بيتم عمل الاعدادات الخاصه بالشبكة
+قم بتغيير اسم شبكة الواي فاي من اما مربع : Network Name (SSID).
+ نظام الامان في شبكة الواي فاي يفضل تركه كما هو موجود بالصوة امام مربع  : security .
+لاخفاء شبكة الواي فاي قم بوضع علامة صح اما مربع Hide SSID.
+اصدار نظام التشفير نتركما بالصورة : version.
+نظام التشفير يفضل ايضا تركه كما هو موجود بالصورة : Encryption.
+تستطيع تغيير كلمة مرور شبكة الواي فاي من أمام مربع Password.
+ثم قم بالضغط على save .
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ريست وكونفجريشن  للراوتر
+هناك ريست يسمى هارد يعنى بيكون بدبوس فى فتحه فى ضهر الراوتر  بنضغط عليها بدبوس  لحد لما كل اللمبات تفصل ماعدا الباور وبعد كده نعمل الاعدادات
+او عمل ريست من صفحه الروتر Management &amp; Diagnosis &gt;  System Management &gt;  Device Management &gt;  Factory Reset Management
+بعد بيتم عمل الاعدادات #
+هيتم كتابه يوز نيم وباسورد الخدمه
+بنكتب   يوز نيم وباسورد الاعدادات   اللى بيوصلك من الشركه  بعد كده من  wifi configuration ده يا فندم اعدادات الشبكة  2.4 G 5G  ويتم تغير اسم الشبكة والباسورد 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريست وكونفجريشن  للراوتر 
+هناك ريست يسمى هارد يعنى بيكون بدبوس فى فتحه فى ضهر الراوتر  بنضغط عليها بدبوس  لحد لما كل اللمبات تفصل ماعدا الباور وبعد كده نعمل الاعدادات
+او عمل ريست من صفحه الروتر 
+بعد بيتم عمل الاعدادات # 
+هيتم كتابه يوز نيم وباسورد الخدمه 
+بنكتب   يوز نيم وباسورد الاعدادات   اللى بيوصلك من الشركه  بعد كده من  wifi configuration ده يا فندم اعدادات الشبكة  2.4 G 5G حضرتك بتعلم صح على الشبكة اللى محتاجها .. او ممكن الاتنين ويتم تغير اسم الشبكة 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ريست وكونفجريشن  للراوتر 
+هناك ريست يسمى هارد يعنى بيكون بدبوس فى فتحه فى ضهر الراوتر  بنضغط عليها بدبوس  لحد لما كل اللمبات تفصل ماعدا الباور وبعد كده نعمل الاعدادات 
+او عمل ريست من صفحه الروتر
+ بعد بيتم عمل الاعدادات # 
+# هيتم الضغط على كلمه  let's go 
+هيتم كتابه يوز نيم وباسورد الخدمه
+ بنكتب   يوز نيم وباسورد الاعدادات   اللى بيوصلك من الشركه
+ وبعدين دوس next
+ # wifi name ده اسم الشبكه
+#password     ده باسورد شبكه الواى فاى  ويفضل يكون من حروف وارقام ورموز  بحيث يكون قوى ويصعب اختراقه ولايقل 8 حروف  وارقام 
+# هيتم وضع علامه صح على الاخيتار الاخيار الخاص بالشبكات
+# هيتم الضغط على كلمه done 
+</t>
+  </si>
+  <si>
+    <t>Reset config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+كيفيه الدخول لصفحه الروتر
+نكتب فى محرك البحث 192.168.1.1 نضغط انتر 
+او فى البحث الخاص بالموبايل فى المتصفح  نكتب 192.168.1.1 
+اليوز نيم وباسورد الدخول بيكون  فى الغالب   user # admin   password # admin 
+او  user # admin  
+password # الموجود فى ضهر الراوتر 
+# يجب مراعاه الحروف لو كابيتل او صمول يعنى كبيره او صغيره لانو لو عكسنا بيفرق  ومش بيفتح  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+كيفيه الدخول لصفحه الروتر
+نكتب فى محرك البحث 192.168.1.1 نضغط انتر 
+او فى البحث الخاص بالموبايل فى المتصفح  نكتب 192.168.1.1 
+اليوز نيم وباسورد الدخول بيكون  فى الغالب   user # admin   password # admin 
+او  user # admin  
+password # الموجود فى ضهر الراوتر 
+# يجب مراعاه الحروف لو كابيتل او صمول يعنى كبيره او صغيره لانو لو عكسنا بيفرق  ومش بيفتح  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كيفيه الدخول لصفحه الروتر
+نكتب فى محرك البحث 192.168.1.1 نضغط انتر 
+او فى البحث الخاص بالموبايل فى المتصفح  نكتب 192.168.1.1 
+اليوز نيم وباسورد الدخول بيكون  فى الغالب   user # admin   password # admin 
+او  user # admin  
+password # الموجود فى ضهر الراوتر 
+# يجب مراعاه الحروف لو كابيتل او صمول يعنى كبيره او صغيره لانو لو عكسنا بيفرق  ومش بيفتح  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كيفيه الدخول لصفحه الروتر
+نكتب فى محرك البحث 192.168.1.1 نضغط انتر 
+او فى البحث الخاص بالموبايل فى المتصفح  نكتب 192.168.1.1 
+اليوز نيم وباسورد الدخول بيكون  فى الغالب   user # admin   password # admin 
+او  user # admin  
+password # الموجود فى ضهر الراوتر 
+# يجب مراعاه الحروف لو كابيتل او صمول يعنى كبيره او صغيره لانو لو عكسنا بيفرق  ومش بيفتح  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كيفيه الدخول لصفحه الروتر 
+نكتب فى محرك البحث 192.168.1.1 نضغط انتر  
+او فى البحث الخاص بالموبايل فى المتصفح  نكتب 192.168.1.1 
+اليوز نيم وباسورد الدخول بيكون  فى الغالب   user # admin   password # admin 
+او  user # admin  
+password # الموجود فى ضهر الراوتر 
+# يجب مراعاه الحروف لو كابيتل او صمول يعنى كبيره او صغيره لانو لو عكسنا بيفرق  ومش بيفتح   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كيفيه الدخول لصفحه الروتر 
+نكتب فى محرك البحث 192.168.1.1 نضغط انتر  
+او فى البحث الخاص بالموبايل فى المتصفح  نكتب 192.168.1.1 
+اليوز نيم وباسورد الدخول بيكون  فى الغالب   user # admin   password # admin 
+او  user # admin  
+password # الموجود فى ضهر الراوتر 
+# يجب مراعاه الحروف لو كابيتل او صمول يعنى كبيره او صغيره لانو لو عكسنا بيفرق  ومش بيفتح  
+</t>
+  </si>
+  <si>
+    <t>How to access to cpe page</t>
+  </si>
+  <si>
+    <t>hg 630 #633 # dg8045</t>
+  </si>
+  <si>
+    <t> zte 168</t>
+  </si>
+  <si>
+    <t>zte108n</t>
+  </si>
+  <si>
+    <t>hg 531#532</t>
+  </si>
+  <si>
+    <t>TP-Link  VN020-F3</t>
+  </si>
+  <si>
+    <t>H188A ( zte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DN 8245V - 56 ( </t>
+  </si>
+  <si>
+    <t>zyxel</t>
+  </si>
+  <si>
+    <t>router</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1707,8 +2727,49 @@
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF34495E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1727,8 +2788,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="8" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1863,11 +2936,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1975,11 +3100,223 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top style="thick">
+          <color auto="1"/>
+        </top>
+        <bottom style="thick">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thick">
+          <color auto="1"/>
+        </left>
+        <right style="thick">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
@@ -1995,6 +3332,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="B1:I14" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="B1:I14"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="zyxel" dataDxfId="7"/>
+    <tableColumn id="2" name="DN 8245V - 56 ( " dataDxfId="6"/>
+    <tableColumn id="3" name="H188A ( zte)" dataDxfId="5"/>
+    <tableColumn id="4" name="TP-Link  VN020-F3" dataDxfId="4"/>
+    <tableColumn id="5" name="hg 531#532" dataDxfId="3"/>
+    <tableColumn id="6" name="zte108n" dataDxfId="2"/>
+    <tableColumn id="7" name=" zte 168" dataDxfId="1"/>
+    <tableColumn id="8" name="hg 630 #633 # dg8045" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2346,7 +3700,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>14</v>
@@ -2366,13 +3720,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>180</v>
@@ -2383,7 +3737,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>19</v>
@@ -2403,13 +3757,13 @@
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>23</v>
@@ -2449,7 +3803,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>34</v>
@@ -2460,10 +3814,10 @@
     </row>
     <row r="9" spans="1:6" s="20" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>170</v>
@@ -2477,13 +3831,13 @@
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="130.5" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>38</v>
@@ -2558,7 +3912,7 @@
         <v>177</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F14" s="5"/>
     </row>
@@ -2647,13 +4001,13 @@
         <v>168</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" ht="109.5" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>145</v>
@@ -2665,7 +4019,7 @@
         <v>148</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F20" s="5"/>
     </row>
@@ -2677,13 +4031,13 @@
         <v>173</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>178</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="4" customFormat="1" ht="107.25" customHeight="1">
@@ -2694,18 +4048,144 @@
         <v>174</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="38.25" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="31.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="34" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="38" customFormat="1" ht="135" customHeight="1">
+      <c r="A2" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="34" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A3" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="38" customFormat="1" ht="135" customHeight="1">
+      <c r="A4" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="34" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A5" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="38" customFormat="1" ht="135" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2739,7 +4219,7 @@
         <v>72</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="120.75" customHeight="1" thickBot="1">
@@ -2756,10 +4236,10 @@
         <v>76</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="20" customFormat="1" ht="33.75" customHeight="1">
@@ -3011,7 +4491,7 @@
         <v>169</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D1" s="26"/>
     </row>
@@ -3063,10 +4543,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="20" customFormat="1" ht="23.25" customHeight="1">
       <c r="A1" s="19" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -3074,10 +4554,10 @@
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="109.5" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -3087,16 +4567,16 @@
         <v>28</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
@@ -3109,27 +4589,27 @@
         <v>29</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>174</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="20" customFormat="1" ht="24" customHeight="1">
       <c r="A5" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>237</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>235</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -3137,13 +4617,13 @@
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="97.5" customHeight="1">
       <c r="A6" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3266,6 +4746,415 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" thickTop="1" thickBottom="1"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="39" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="39" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="39" customWidth="1"/>
+    <col min="9" max="9" width="34.140625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="39" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="51" customFormat="1" ht="21.75" thickBot="1">
+      <c r="A1" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="79.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A2" s="46" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>404</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="65.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>397</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="44.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>387</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>386</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>385</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="54.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A5" s="50" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>377</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="42.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A6" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>369</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="58.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A7" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>362</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A8" s="46" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="66" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A9" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="F9" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="68.45" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A10" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="H10" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="I10" s="41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="58.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A11" s="42" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="51.6" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="H12" s="41" t="s">
+        <v>314</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="34.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A13" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="F13" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>308</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="I13" s="41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3331,7 +5220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3343,11 +5232,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3363,273 +5252,273 @@
   <sheetData>
     <row r="1" spans="1:6" s="33" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="101.25" customHeight="1">
       <c r="A2" s="36" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="33" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="112.5" customHeight="1">
       <c r="A4" s="36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="33" customFormat="1" ht="27" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" ht="101.25" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="33" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="101.25" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="33" customFormat="1" ht="25.5" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="101.25" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="33" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="101.25" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="33" customFormat="1" ht="25.5" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="101.25" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="33" customFormat="1" ht="25.5" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:6" ht="101.25" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E16" s="36"/>
     </row>
@@ -3639,7 +5528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3653,7 +5542,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>66</v>
@@ -3665,10 +5554,10 @@
     <row r="2" spans="1:5" ht="108" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>67</v>
@@ -3680,130 +5569,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="38.25" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="34.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="31.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="34" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="38" customFormat="1" ht="135" customHeight="1">
-      <c r="A2" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="34" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="38" customFormat="1" ht="135" customHeight="1">
-      <c r="A4" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="34" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="38" customFormat="1" ht="135" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>300</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>